--- a/excelData/LTM_1100-5.2.xlsx
+++ b/excelData/LTM_1100-5.2.xlsx
@@ -9,28 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18270" tabRatio="860" firstSheet="15" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18270" tabRatio="860" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
-    <sheet name="T_35t_TAB 171156" sheetId="1" r:id="rId1"/>
-    <sheet name="T_26t_TAB 171157" sheetId="2" r:id="rId2"/>
-    <sheet name="T_15t_TAB 171160" sheetId="3" r:id="rId3"/>
-    <sheet name="T_11.5t_TAB 171166" sheetId="4" r:id="rId4"/>
-    <sheet name="T_0t_TAB 171169" sheetId="5" r:id="rId5"/>
-    <sheet name="TJB_35t_TAB 171188.1" sheetId="6" r:id="rId6"/>
-    <sheet name="TJB_35t_TAB 171188.2" sheetId="7" r:id="rId7"/>
-    <sheet name="TJB_26t_TAB 171189.1" sheetId="8" r:id="rId8"/>
-    <sheet name="TJB_26t_TAB 171189.2" sheetId="9" r:id="rId9"/>
-    <sheet name="TJBV_35t_TAB 171299.1" sheetId="10" r:id="rId10"/>
-    <sheet name="TJBV_35t_TAB 171299.2" sheetId="11" r:id="rId11"/>
-    <sheet name="TJBVE_35t_TAB 171363.1" sheetId="12" r:id="rId12"/>
-    <sheet name="TJBVE_35t_TAB 171363.2" sheetId="13" r:id="rId13"/>
-    <sheet name="THJB_35t_TAB 171435.1" sheetId="14" r:id="rId14"/>
-    <sheet name="THJB_35t_TAB 171435.2" sheetId="15" r:id="rId15"/>
-    <sheet name="THJBV_35t_TAB 171496.1" sheetId="16" r:id="rId16"/>
-    <sheet name="THJBV_35t_TAB 171496.2" sheetId="17" r:id="rId17"/>
-    <sheet name="THJBVE_35t_TAB 171550.1" sheetId="18" r:id="rId18"/>
-    <sheet name="THJBVE_35t_TAB 171550.2" sheetId="19" r:id="rId19"/>
+    <sheet name="T_35t_TAB171156" sheetId="1" r:id="rId1"/>
+    <sheet name="T_26t_TAB171157" sheetId="2" r:id="rId2"/>
+    <sheet name="T_15t_TAB171160" sheetId="3" r:id="rId3"/>
+    <sheet name="T_11.5t_TAB171166" sheetId="4" r:id="rId4"/>
+    <sheet name="T_0t_TAB171169" sheetId="5" r:id="rId5"/>
+    <sheet name="TK_35t_TAB171188.1" sheetId="6" r:id="rId6"/>
+    <sheet name="TK_35t_TAB171188.2" sheetId="7" r:id="rId7"/>
+    <sheet name="TK_26t_TAB171189.1" sheetId="8" r:id="rId8"/>
+    <sheet name="TK_26t_TAB171189.2" sheetId="9" r:id="rId9"/>
+    <sheet name="TVK_35t_TAB171299.1" sheetId="10" r:id="rId10"/>
+    <sheet name="TVK_35t_TAB171299.2" sheetId="11" r:id="rId11"/>
+    <sheet name="TVK_35t_TAB171363.1" sheetId="12" r:id="rId12"/>
+    <sheet name="TVK_35t_TAB171363.2" sheetId="13" r:id="rId13"/>
+    <sheet name="THK_35t_TAB 171435.1" sheetId="14" r:id="rId14"/>
+    <sheet name="THK_35t_TAB 171435.2" sheetId="15" r:id="rId15"/>
+    <sheet name="TVHK_35t_TAB 171496.1" sheetId="16" r:id="rId16"/>
+    <sheet name="TVHK_35t_TAB 171496.2" sheetId="17" r:id="rId17"/>
+    <sheet name="TVHK_35t_TAB 171550.1" sheetId="18" r:id="rId18"/>
+    <sheet name="TVHK_35t_TAB 171550.2" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="34">
   <si>
     <t>메인</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -169,6 +169,10 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6617,7 +6621,7 @@
     </row>
     <row r="13" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>22</v>
@@ -9780,7 +9784,7 @@
   <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20040,7 +20044,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32027,7 +32031,7 @@
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/excelData/LTM_1100-5.2.xlsx
+++ b/excelData/LTM_1100-5.2.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Back File\platcube\excelConvForRigging\excelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18270" tabRatio="860" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18270" tabRatio="860" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="T_35t_TAB171156" sheetId="1" r:id="rId1"/>
@@ -635,10 +635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2155,16 +2158,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="Y28" sqref="Y28:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4087,16 +4095,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="Y28" sqref="Y28:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5987,16 +6000,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="Y28" sqref="Y28:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7881,16 +7899,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet13">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="Y28" sqref="Y28:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9775,16 +9798,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet14">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+      <selection activeCell="Y28" sqref="Y28:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12028,16 +12056,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="Y28" sqref="Y28:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14265,16 +14298,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet16">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="Y28" sqref="Y28:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16201,16 +16239,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet17">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="Y28" sqref="Y28:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18105,16 +18148,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet18">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="Y28" sqref="Y28:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20035,16 +20083,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet19">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21931,16 +21984,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23517,16 +23575,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="Y28" sqref="Y28:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24975,16 +25038,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="Y28" sqref="Y28:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26302,16 +26370,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27505,16 +27578,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="Y28" sqref="Y28:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29752,16 +29830,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="Y28" sqref="Y28:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32022,16 +32105,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="Y28" sqref="Y28:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -34168,16 +34256,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="Y28" sqref="Y28:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -36344,6 +36437,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>